--- a/Code/Results/Cases/Case_7_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.0012107613761</v>
+        <v>26.00121076137614</v>
       </c>
       <c r="C2">
-        <v>19.28007844151929</v>
+        <v>19.28007844151917</v>
       </c>
       <c r="D2">
         <v>4.201440065413223</v>
       </c>
       <c r="E2">
-        <v>9.210395248498299</v>
+        <v>9.210395248498315</v>
       </c>
       <c r="F2">
-        <v>39.16779788075676</v>
+        <v>39.16779788075673</v>
       </c>
       <c r="G2">
-        <v>2.042616991887839</v>
+        <v>2.042616991887841</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>20.245322203196</v>
       </c>
       <c r="N2">
-        <v>12.92273344980005</v>
+        <v>12.92273344980001</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.09947917763353</v>
+        <v>24.09947917763359</v>
       </c>
       <c r="C3">
-        <v>17.87290641929581</v>
+        <v>17.87290641929599</v>
       </c>
       <c r="D3">
-        <v>4.23228596588618</v>
+        <v>4.232285965886047</v>
       </c>
       <c r="E3">
-        <v>8.699212047795102</v>
+        <v>8.699212047795122</v>
       </c>
       <c r="F3">
-        <v>36.97507691466388</v>
+        <v>36.97507691466389</v>
       </c>
       <c r="G3">
-        <v>2.055897249820014</v>
+        <v>2.055897249820275</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.78328918682112</v>
+        <v>18.78328918682115</v>
       </c>
       <c r="N3">
-        <v>13.09397858994972</v>
+        <v>13.09397858994973</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87738622785389</v>
+        <v>22.87738622785381</v>
       </c>
       <c r="C4">
-        <v>16.96882075152192</v>
+        <v>16.96882075152158</v>
       </c>
       <c r="D4">
-        <v>4.255556573866697</v>
+        <v>4.255556573867042</v>
       </c>
       <c r="E4">
-        <v>8.383030416257814</v>
+        <v>8.383030416257773</v>
       </c>
       <c r="F4">
-        <v>35.61626843086172</v>
+        <v>35.61626843086187</v>
       </c>
       <c r="G4">
-        <v>2.064185829142031</v>
+        <v>2.064185829141902</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.84447064762695</v>
+        <v>17.84447064762686</v>
       </c>
       <c r="N4">
-        <v>13.20492993314145</v>
+        <v>13.20492993314165</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36538063133631</v>
+        <v>22.3653806313362</v>
       </c>
       <c r="C5">
-        <v>16.59005701945137</v>
+        <v>16.59005701945136</v>
       </c>
       <c r="D5">
-        <v>4.266027866336954</v>
+        <v>4.266027866336934</v>
       </c>
       <c r="E5">
-        <v>8.253657452582292</v>
+        <v>8.253657452582287</v>
       </c>
       <c r="F5">
-        <v>35.0597012228199</v>
+        <v>35.05970122281998</v>
       </c>
       <c r="G5">
-        <v>2.067601890657916</v>
+        <v>2.067601890658312</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.45127992966743</v>
+        <v>17.45127992966734</v>
       </c>
       <c r="N5">
-        <v>13.2515221759516</v>
+        <v>13.2515221759517</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.2795089934037</v>
+        <v>22.27950899340372</v>
       </c>
       <c r="C6">
-        <v>16.52653168779599</v>
+        <v>16.5265316877961</v>
       </c>
       <c r="D6">
-        <v>4.267823580367565</v>
+        <v>4.267823580367398</v>
       </c>
       <c r="E6">
-        <v>8.232145703953812</v>
+        <v>8.232145703953824</v>
       </c>
       <c r="F6">
-        <v>34.96712360032277</v>
+        <v>34.96712360032267</v>
       </c>
       <c r="G6">
-        <v>2.068171569942971</v>
+        <v>2.068171569943105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.38534226995995</v>
+        <v>17.38534226995999</v>
       </c>
       <c r="N6">
-        <v>13.25933990625996</v>
+        <v>13.25933990625988</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.87053818092015</v>
+        <v>22.8705381809201</v>
       </c>
       <c r="C7">
-        <v>16.96375481694422</v>
+        <v>16.9637548169442</v>
       </c>
       <c r="D7">
-        <v>4.255693916484979</v>
+        <v>4.255693916484965</v>
       </c>
       <c r="E7">
-        <v>8.381287678577284</v>
+        <v>8.38128767857725</v>
       </c>
       <c r="F7">
-        <v>35.60877337573864</v>
+        <v>35.60877337573863</v>
       </c>
       <c r="G7">
-        <v>2.064231738127064</v>
+        <v>2.06423173812733</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.83921126265047</v>
+        <v>17.83921126265043</v>
       </c>
       <c r="N7">
-        <v>13.20555280869712</v>
+        <v>13.20555280869716</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35659277238474</v>
+        <v>25.35659277238479</v>
       </c>
       <c r="C8">
-        <v>18.80303713257128</v>
+        <v>18.80303713257129</v>
       </c>
       <c r="D8">
-        <v>4.211112456104955</v>
+        <v>4.211112456104972</v>
       </c>
       <c r="E8">
-        <v>9.034640683071963</v>
+        <v>9.034640683071979</v>
       </c>
       <c r="F8">
-        <v>38.4144625067127</v>
+        <v>38.41446250671274</v>
       </c>
       <c r="G8">
-        <v>2.047171032844329</v>
+        <v>2.047171032844326</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.74957606574638</v>
+        <v>19.7495760657464</v>
       </c>
       <c r="N8">
-        <v>12.98052069658066</v>
+        <v>12.98052069658065</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81578874914839</v>
+        <v>29.81578874914849</v>
       </c>
       <c r="C9">
-        <v>22.10515392117048</v>
+        <v>22.10515392117039</v>
       </c>
       <c r="D9">
-        <v>4.163265557486656</v>
+        <v>4.16326555748657</v>
       </c>
       <c r="E9">
         <v>10.29721266751834</v>
       </c>
       <c r="F9">
-        <v>43.81334127907229</v>
+        <v>43.81334127907219</v>
       </c>
       <c r="G9">
-        <v>2.01454672207412</v>
+        <v>2.014546722074248</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.18329236847806</v>
+        <v>23.1832923684781</v>
       </c>
       <c r="N9">
-        <v>12.58973357813335</v>
+        <v>12.58973357813333</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86395098380664</v>
+        <v>32.86395098380665</v>
       </c>
       <c r="C10">
-        <v>24.366534049087</v>
+        <v>24.36653404908692</v>
       </c>
       <c r="D10">
-        <v>4.160661672255372</v>
+        <v>4.160661672255431</v>
       </c>
       <c r="E10">
-        <v>11.38516371357499</v>
+        <v>11.38516371357501</v>
       </c>
       <c r="F10">
-        <v>47.72520761289874</v>
+        <v>47.72520761289872</v>
       </c>
       <c r="G10">
-        <v>1.99070474871625</v>
+        <v>1.990704748716517</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.53747694927857</v>
+        <v>25.53747694927856</v>
       </c>
       <c r="N10">
-        <v>12.3410387686068</v>
+        <v>12.34103876860682</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.20799687057937</v>
+        <v>34.20799687057949</v>
       </c>
       <c r="C11">
-        <v>25.36514074699169</v>
+        <v>25.36514074699177</v>
       </c>
       <c r="D11">
-        <v>4.168806798917418</v>
+        <v>4.1688067989173</v>
       </c>
       <c r="E11">
-        <v>11.87772179817561</v>
+        <v>11.87772179817567</v>
       </c>
       <c r="F11">
-        <v>49.60196249311253</v>
+        <v>49.60196249311269</v>
       </c>
       <c r="G11">
-        <v>1.979782891815667</v>
+        <v>1.979782891815672</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.57769641344952</v>
+        <v>26.57769641344964</v>
       </c>
       <c r="N11">
-        <v>12.23847543672112</v>
+        <v>12.23847543672098</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.71151636603391</v>
+        <v>34.71151636603383</v>
       </c>
       <c r="C12">
-        <v>25.73951762123614</v>
+        <v>25.739517621236</v>
       </c>
       <c r="D12">
-        <v>4.173457762269871</v>
+        <v>4.173457762269891</v>
       </c>
       <c r="E12">
-        <v>12.06299633120147</v>
+        <v>12.06299633120148</v>
       </c>
       <c r="F12">
-        <v>50.31781383353439</v>
+        <v>50.31781383353422</v>
       </c>
       <c r="G12">
-        <v>1.975625688847047</v>
+        <v>1.97562568884719</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.96776752017659</v>
+        <v>26.9677675201765</v>
       </c>
       <c r="N12">
-        <v>12.20139602763638</v>
+        <v>12.20139602763648</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>34.60330432990528</v>
       </c>
       <c r="C13">
-        <v>25.65904682463919</v>
+        <v>25.65904682463933</v>
       </c>
       <c r="D13">
-        <v>4.172382467494568</v>
+        <v>4.172382467494544</v>
       </c>
       <c r="E13">
-        <v>12.02314371578165</v>
+        <v>12.02314371578163</v>
       </c>
       <c r="F13">
-        <v>50.16371989848765</v>
+        <v>50.16371989848769</v>
       </c>
       <c r="G13">
-        <v>1.976522151625023</v>
+        <v>1.976522151624882</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.88391910839115</v>
+        <v>26.88391910839114</v>
       </c>
       <c r="N13">
-        <v>12.20929914845607</v>
+        <v>12.20929914845606</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.24952645740855</v>
+        <v>34.24952645740831</v>
       </c>
       <c r="C14">
-        <v>25.39601306729494</v>
+        <v>25.39601306729459</v>
       </c>
       <c r="D14">
-        <v>4.16915662861352</v>
+        <v>4.169156628613623</v>
       </c>
       <c r="E14">
-        <v>11.89298733525509</v>
+        <v>11.89298733525515</v>
       </c>
       <c r="F14">
-        <v>49.66089258804555</v>
+        <v>49.66089258804526</v>
       </c>
       <c r="G14">
-        <v>1.979441370058556</v>
+        <v>1.979441370058423</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.60986103606457</v>
+        <v>26.60986103606444</v>
       </c>
       <c r="N14">
-        <v>12.2353880850743</v>
+        <v>12.23538808507437</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.0321408569804</v>
+        <v>34.03214085698051</v>
       </c>
       <c r="C15">
-        <v>25.23442394060093</v>
+        <v>25.23442394060096</v>
       </c>
       <c r="D15">
-        <v>4.167391984648924</v>
+        <v>4.167391984648854</v>
       </c>
       <c r="E15">
-        <v>11.81311120983067</v>
+        <v>11.8131112098307</v>
       </c>
       <c r="F15">
-        <v>49.35265011441754</v>
+        <v>49.3526501144176</v>
       </c>
       <c r="G15">
-        <v>1.981226356922828</v>
+        <v>1.981226356922955</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.44151166734152</v>
+        <v>26.4415116673416</v>
       </c>
       <c r="N15">
-        <v>12.25160535893392</v>
+        <v>12.25160535893384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77531329776967</v>
+        <v>32.77531329776976</v>
       </c>
       <c r="C16">
-        <v>24.30071232415376</v>
+        <v>24.3007123241539</v>
       </c>
       <c r="D16">
-        <v>4.160335578717578</v>
+        <v>4.16033557871763</v>
       </c>
       <c r="E16">
-        <v>11.35278027048719</v>
+        <v>11.35278027048715</v>
       </c>
       <c r="F16">
-        <v>47.60923860365087</v>
+        <v>47.60923860365111</v>
       </c>
       <c r="G16">
-        <v>1.991416140058401</v>
+        <v>1.99141614005827</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.46892547928342</v>
+        <v>25.46892547928346</v>
       </c>
       <c r="N16">
-        <v>12.34797354287752</v>
+        <v>12.34797354287754</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.9938348993127</v>
+        <v>31.99383489931271</v>
       </c>
       <c r="C17">
-        <v>23.72056649047142</v>
+        <v>23.72056649047135</v>
       </c>
       <c r="D17">
-        <v>4.158546008979706</v>
+        <v>4.158546008979759</v>
       </c>
       <c r="E17">
-        <v>11.06779308807037</v>
+        <v>11.06779308807041</v>
       </c>
       <c r="F17">
-        <v>46.59233175283381</v>
+        <v>46.59233175283384</v>
       </c>
       <c r="G17">
-        <v>1.997640926167394</v>
+        <v>1.997640926167396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>24.86479201168197</v>
       </c>
       <c r="N17">
-        <v>12.40995451761313</v>
+        <v>12.40995451761309</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.5402946887876</v>
+        <v>31.5402946887875</v>
       </c>
       <c r="C18">
-        <v>23.38401005110618</v>
+        <v>23.38401005110606</v>
       </c>
       <c r="D18">
-        <v>4.158379527894083</v>
+        <v>4.158379527894121</v>
       </c>
       <c r="E18">
-        <v>10.90282233055856</v>
+        <v>10.90282233055861</v>
       </c>
       <c r="F18">
-        <v>46.00681823306088</v>
+        <v>46.00681823306082</v>
       </c>
       <c r="G18">
-        <v>2.001214821862808</v>
+        <v>2.001214821862813</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.51438003407841</v>
+        <v>24.51438003407836</v>
       </c>
       <c r="N18">
-        <v>12.44658219792132</v>
+        <v>12.44658219792133</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.38601845351017</v>
+        <v>31.38601845351027</v>
       </c>
       <c r="C19">
-        <v>23.2695491174703</v>
+        <v>23.26954911747046</v>
       </c>
       <c r="D19">
-        <v>4.158465033506793</v>
+        <v>4.158465033506832</v>
       </c>
       <c r="E19">
-        <v>10.84677599483443</v>
+        <v>10.84677599483438</v>
       </c>
       <c r="F19">
-        <v>45.80844792642607</v>
+        <v>45.80844792642614</v>
       </c>
       <c r="G19">
-        <v>2.002424064000948</v>
+        <v>2.002424064000943</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.39521715597788</v>
+        <v>24.39521715597793</v>
       </c>
       <c r="N19">
-        <v>12.4591451428733</v>
+        <v>12.45914514287325</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.07743966017767</v>
+        <v>32.0774396601774</v>
       </c>
       <c r="C20">
-        <v>23.78261750486508</v>
+        <v>23.78261750486479</v>
       </c>
       <c r="D20">
-        <v>4.158645688356458</v>
+        <v>4.158645688356509</v>
       </c>
       <c r="E20">
-        <v>11.09823731154687</v>
+        <v>11.09823731154688</v>
       </c>
       <c r="F20">
-        <v>46.70064206621463</v>
+        <v>46.70064206621434</v>
       </c>
       <c r="G20">
-        <v>1.996979022801276</v>
+        <v>1.996979022801273</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.92940244633947</v>
+        <v>24.92940244633927</v>
       </c>
       <c r="N20">
-        <v>12.40325375457825</v>
+        <v>12.40325375457832</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.35358126177491</v>
+        <v>34.35358126177501</v>
       </c>
       <c r="C21">
-        <v>25.47336997481511</v>
+        <v>25.47336997481514</v>
       </c>
       <c r="D21">
-        <v>4.170059655208085</v>
+        <v>4.170059655208066</v>
       </c>
       <c r="E21">
-        <v>11.93124833753999</v>
+        <v>11.93124833753995</v>
       </c>
       <c r="F21">
-        <v>49.80863445214742</v>
+        <v>49.80863445214748</v>
       </c>
       <c r="G21">
-        <v>1.978584596064386</v>
+        <v>1.978584596064651</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.69045757463034</v>
+        <v>26.69045757463038</v>
       </c>
       <c r="N21">
-        <v>12.22767523144321</v>
+        <v>12.22767523144322</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.80986046988095</v>
+        <v>35.80986046988097</v>
       </c>
       <c r="C22">
-        <v>26.55670931211219</v>
+        <v>26.55670931211217</v>
       </c>
       <c r="D22">
-        <v>4.18678090978339</v>
+        <v>4.186780909783435</v>
       </c>
       <c r="E22">
-        <v>12.46860137230964</v>
+        <v>12.46860137230968</v>
       </c>
       <c r="F22">
-        <v>51.88944056871239</v>
+        <v>51.88944056871247</v>
       </c>
       <c r="G22">
-        <v>1.966432156072567</v>
+        <v>1.966432156072572</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.81938656001491</v>
+        <v>27.81938656001494</v>
       </c>
       <c r="N22">
-        <v>12.12332769958438</v>
+        <v>12.12332769958444</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.03522463259858</v>
+        <v>35.03522463259874</v>
       </c>
       <c r="C23">
-        <v>25.98028336130984</v>
+        <v>25.9802833613099</v>
       </c>
       <c r="D23">
-        <v>4.176925416131157</v>
+        <v>4.176925416131192</v>
       </c>
       <c r="E23">
-        <v>12.18232796392718</v>
+        <v>12.18232796392723</v>
       </c>
       <c r="F23">
-        <v>50.77958162325158</v>
+        <v>50.77958162325172</v>
       </c>
       <c r="G23">
-        <v>1.97293404474572</v>
+        <v>1.972934044745588</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.21865254006365</v>
+        <v>27.21865254006376</v>
       </c>
       <c r="N23">
-        <v>12.1779751911632</v>
+        <v>12.1779751911631</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.03965525979596</v>
+        <v>32.03965525979599</v>
       </c>
       <c r="C24">
-        <v>23.75457369724664</v>
+        <v>23.75457369724679</v>
       </c>
       <c r="D24">
-        <v>4.158597953833274</v>
+        <v>4.158597953833165</v>
       </c>
       <c r="E24">
-        <v>11.08447701488608</v>
+        <v>11.08447701488604</v>
       </c>
       <c r="F24">
-        <v>46.65167777103992</v>
+        <v>46.65167777103997</v>
       </c>
       <c r="G24">
-        <v>1.997278283560607</v>
+        <v>1.997278283560868</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.90020172814959</v>
+        <v>24.90020172814961</v>
       </c>
       <c r="N24">
-        <v>12.40628009100352</v>
+        <v>12.40628009100347</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.65156346124516</v>
+        <v>28.65156346124502</v>
       </c>
       <c r="C25">
-        <v>21.24245469841616</v>
+        <v>21.24245469841614</v>
       </c>
       <c r="D25">
-        <v>4.171175961225186</v>
+        <v>4.171175961225265</v>
       </c>
       <c r="E25">
-        <v>9.957515838922196</v>
+        <v>9.957515838922173</v>
       </c>
       <c r="F25">
-        <v>42.36369727069179</v>
+        <v>42.36369727069182</v>
       </c>
       <c r="G25">
-        <v>2.02331934297842</v>
+        <v>2.023319342978422</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.28574470952036</v>
+        <v>22.28574470952029</v>
       </c>
       <c r="N25">
-        <v>12.68934942730031</v>
+        <v>12.68934942730034</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.00121076137614</v>
+        <v>20.15441547918077</v>
       </c>
       <c r="C2">
-        <v>19.28007844151917</v>
+        <v>15.85836761323856</v>
       </c>
       <c r="D2">
-        <v>4.201440065413223</v>
+        <v>3.345532259453642</v>
       </c>
       <c r="E2">
-        <v>9.210395248498315</v>
+        <v>14.7809362354001</v>
       </c>
       <c r="F2">
-        <v>39.16779788075673</v>
+        <v>23.49940105459005</v>
       </c>
       <c r="G2">
-        <v>2.042616991887841</v>
+        <v>32.98058936836406</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.595458111676534</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.14559100579245</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.04029198394442</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.245322203196</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.92273344980001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.84450800727977</v>
+      </c>
+      <c r="P2">
+        <v>11.30102950102702</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.09947917763359</v>
+        <v>18.82681849451981</v>
       </c>
       <c r="C3">
-        <v>17.87290641929599</v>
+        <v>14.83029022135655</v>
       </c>
       <c r="D3">
-        <v>4.232285965886047</v>
+        <v>3.3076975853952</v>
       </c>
       <c r="E3">
-        <v>8.699212047795122</v>
+        <v>14.04455411327344</v>
       </c>
       <c r="F3">
-        <v>36.97507691466389</v>
+        <v>22.40956888174088</v>
       </c>
       <c r="G3">
-        <v>2.055897249820275</v>
+        <v>31.22677336794655</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.342181909555467</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.923545853010424</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.85240442350809</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.78328918682115</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.09397858994973</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.79407277800423</v>
+      </c>
+      <c r="P3">
+        <v>11.48503986157338</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87738622785381</v>
+        <v>17.96452865765011</v>
       </c>
       <c r="C4">
-        <v>16.96882075152158</v>
+        <v>14.16363284844916</v>
       </c>
       <c r="D4">
-        <v>4.255556573867042</v>
+        <v>3.283546419528116</v>
       </c>
       <c r="E4">
-        <v>8.383030416257773</v>
+        <v>13.57259456662642</v>
       </c>
       <c r="F4">
-        <v>35.61626843086187</v>
+        <v>21.73255469824457</v>
       </c>
       <c r="G4">
-        <v>2.064185829141902</v>
+        <v>30.12848797973449</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.181686074668484</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.791926957363117</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.74829152876388</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.84447064762686</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.20492993314165</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.11683488197995</v>
+      </c>
+      <c r="P4">
+        <v>11.59987381766195</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.3653806313362</v>
+        <v>17.60123217386744</v>
       </c>
       <c r="C5">
-        <v>16.59005701945136</v>
+        <v>13.88303487401648</v>
       </c>
       <c r="D5">
-        <v>4.266027866336934</v>
+        <v>3.273479249547557</v>
       </c>
       <c r="E5">
-        <v>8.253657452582287</v>
+        <v>13.37533114530248</v>
       </c>
       <c r="F5">
-        <v>35.05970122281998</v>
+        <v>21.45505050588441</v>
       </c>
       <c r="G5">
-        <v>2.067601890658312</v>
+        <v>29.67605580006191</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.115001093280731</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.739497805901873</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.70861708791332</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.45127992966734</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.2515221759517</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.83284703125712</v>
+      </c>
+      <c r="P5">
+        <v>11.64715803174785</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.27950899340372</v>
+        <v>17.54018656262807</v>
       </c>
       <c r="C6">
-        <v>16.5265316877961</v>
+        <v>13.83590195449156</v>
       </c>
       <c r="D6">
-        <v>4.267823580367398</v>
+        <v>3.271794173279244</v>
       </c>
       <c r="E6">
-        <v>8.232145703953824</v>
+        <v>13.34227930934205</v>
       </c>
       <c r="F6">
-        <v>34.96712360032267</v>
+        <v>21.40888505616044</v>
       </c>
       <c r="G6">
-        <v>2.068171569943105</v>
+        <v>29.60065258506828</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.103849884577195</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.730865405023231</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.70219302779003</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.38534226995999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.25933990625988</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.78521114878956</v>
+      </c>
+      <c r="P6">
+        <v>11.65503969319617</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.8705381809201</v>
+        <v>17.95967738718437</v>
       </c>
       <c r="C7">
-        <v>16.9637548169442</v>
+        <v>14.15988478699738</v>
       </c>
       <c r="D7">
-        <v>4.255693916484965</v>
+        <v>3.283411554505097</v>
       </c>
       <c r="E7">
-        <v>8.38128767857725</v>
+        <v>13.5699541137282</v>
       </c>
       <c r="F7">
-        <v>35.60877337573863</v>
+        <v>21.72881820882553</v>
       </c>
       <c r="G7">
-        <v>2.06423173812733</v>
+        <v>30.12240529107408</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.1807919638368</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.791214968932398</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.74774542778981</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.83921126265043</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.20555280869716</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.11303718256288</v>
+      </c>
+      <c r="P7">
+        <v>11.60050950173162</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35659277238479</v>
+        <v>19.70640987004592</v>
       </c>
       <c r="C8">
-        <v>18.80303713257129</v>
+        <v>15.5112185374837</v>
       </c>
       <c r="D8">
-        <v>4.211112456104972</v>
+        <v>3.332681525125086</v>
       </c>
       <c r="E8">
-        <v>9.034640683071979</v>
+        <v>14.53116781578455</v>
       </c>
       <c r="F8">
-        <v>38.41446250671274</v>
+        <v>23.12545654177046</v>
       </c>
       <c r="G8">
-        <v>2.047171032844326</v>
+        <v>32.38060325437732</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.509145129803611</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.0680634695216</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.97312937902527</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.7495760657464</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.98052069658065</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.48906847158655</v>
+      </c>
+      <c r="P8">
+        <v>11.36410636905753</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81578874914849</v>
+        <v>22.760468722883</v>
       </c>
       <c r="C9">
-        <v>22.10515392117039</v>
+        <v>17.88183189939395</v>
       </c>
       <c r="D9">
-        <v>4.16326555748657</v>
+        <v>3.421735833686167</v>
       </c>
       <c r="E9">
-        <v>10.29721266751834</v>
+        <v>16.25768118944696</v>
       </c>
       <c r="F9">
-        <v>43.81334127907219</v>
+        <v>25.78883223140121</v>
       </c>
       <c r="G9">
-        <v>2.014546722074248</v>
+        <v>36.6210187696449</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.114870054326125</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.64744986136914</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.50744371524022</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.1832923684781</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.58973357813333</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.9283327544415</v>
+      </c>
+      <c r="P9">
+        <v>10.91409789786107</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86395098380665</v>
+        <v>24.7688728763745</v>
       </c>
       <c r="C10">
-        <v>24.36653404908692</v>
+        <v>19.41602140039799</v>
       </c>
       <c r="D10">
-        <v>4.160661672255431</v>
+        <v>3.501703071299046</v>
       </c>
       <c r="E10">
-        <v>11.38516371357501</v>
+        <v>16.96853047221262</v>
       </c>
       <c r="F10">
-        <v>47.72520761289872</v>
+        <v>27.52962488206164</v>
       </c>
       <c r="G10">
-        <v>1.990704748716517</v>
+        <v>39.32734067990437</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.512081995032371</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.03424605437435</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.85912547587112</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.53747694927856</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34103876860682</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.26444841289977</v>
+      </c>
+      <c r="P10">
+        <v>10.59436200010958</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.20799687057949</v>
+        <v>25.5233364577932</v>
       </c>
       <c r="C11">
-        <v>25.36514074699177</v>
+        <v>19.7388169579865</v>
       </c>
       <c r="D11">
-        <v>4.1688067989173</v>
+        <v>3.719803312259168</v>
       </c>
       <c r="E11">
-        <v>11.87772179817567</v>
+        <v>13.68736935575901</v>
       </c>
       <c r="F11">
-        <v>49.60196249311269</v>
+        <v>26.96553680887693</v>
       </c>
       <c r="G11">
-        <v>1.979782891815672</v>
+        <v>38.15601054766969</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.023068996584327</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.6946196275123</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.15669092603519</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.57769641344964</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.23847543672098</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.30984108761167</v>
+      </c>
+      <c r="P11">
+        <v>10.51705897644418</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.71151636603383</v>
+        <v>25.7535307221794</v>
       </c>
       <c r="C12">
-        <v>25.739517621236</v>
+        <v>19.70054568221348</v>
       </c>
       <c r="D12">
-        <v>4.173457762269891</v>
+        <v>3.904243988109318</v>
       </c>
       <c r="E12">
-        <v>12.06299633120148</v>
+        <v>11.51500755016254</v>
       </c>
       <c r="F12">
-        <v>50.31781383353422</v>
+        <v>26.10873652673434</v>
       </c>
       <c r="G12">
-        <v>1.97562568884719</v>
+        <v>36.58018009586203</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.960419563279053</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.31538935410544</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.47175030235769</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.9677675201765</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.20139602763648</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.36535035754141</v>
+      </c>
+      <c r="P12">
+        <v>10.55586287899804</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.60330432990528</v>
+        <v>25.60230246967159</v>
       </c>
       <c r="C13">
-        <v>25.65904682463933</v>
+        <v>19.38140370558732</v>
       </c>
       <c r="D13">
-        <v>4.172382467494544</v>
+        <v>4.071182872391233</v>
       </c>
       <c r="E13">
-        <v>12.02314371578163</v>
+        <v>10.45571435276505</v>
       </c>
       <c r="F13">
-        <v>50.16371989848769</v>
+        <v>24.94341296693101</v>
       </c>
       <c r="G13">
-        <v>1.976522151624882</v>
+        <v>34.53704908159602</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.070837388267698</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.874705859923029</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.74822502795117</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.88391910839114</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.20929914845606</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.25496542106482</v>
+      </c>
+      <c r="P13">
+        <v>10.67822418091914</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.24952645740831</v>
+        <v>25.3226031135587</v>
       </c>
       <c r="C14">
-        <v>25.39601306729459</v>
+        <v>19.02741277436424</v>
       </c>
       <c r="D14">
-        <v>4.169156628613623</v>
+        <v>4.180956096505625</v>
       </c>
       <c r="E14">
-        <v>11.89298733525515</v>
+        <v>10.56746544493214</v>
       </c>
       <c r="F14">
-        <v>49.66089258804526</v>
+        <v>23.97266943759978</v>
       </c>
       <c r="G14">
-        <v>1.979441370058423</v>
+        <v>32.86541178741395</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.913922485082394</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.535824959193976</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.22328100943424</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.60986103606444</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.23538808507437</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.67727857287795</v>
+      </c>
+      <c r="P14">
+        <v>10.8018186799961</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.03214085698051</v>
+        <v>25.1715037450166</v>
       </c>
       <c r="C15">
-        <v>25.23442394060096</v>
+        <v>18.87927707501782</v>
       </c>
       <c r="D15">
-        <v>4.167391984648854</v>
+        <v>4.201788115045868</v>
       </c>
       <c r="E15">
-        <v>11.8131112098307</v>
+        <v>10.69292144215217</v>
       </c>
       <c r="F15">
-        <v>49.3526501144176</v>
+        <v>23.66866476413477</v>
       </c>
       <c r="G15">
-        <v>1.981226356922955</v>
+        <v>32.35336264251045</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.106465447338412</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.441257979558273</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.08974671131419</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.4415116673416</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.25160535893384</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.25379751036314</v>
+      </c>
+      <c r="P15">
+        <v>10.84371219199708</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77531329776976</v>
+        <v>24.37251020508763</v>
       </c>
       <c r="C16">
-        <v>24.3007123241539</v>
+        <v>18.29189255667007</v>
       </c>
       <c r="D16">
-        <v>4.16033557871763</v>
+        <v>4.132394392492686</v>
       </c>
       <c r="E16">
-        <v>11.35278027048715</v>
+        <v>10.4655869138817</v>
       </c>
       <c r="F16">
-        <v>47.60923860365111</v>
+        <v>23.08299388531388</v>
       </c>
       <c r="G16">
-        <v>1.99141614005827</v>
+        <v>31.45688422869081</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.822935034925634</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.347033554353704</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.06359627901709</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.46892547928346</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.34797354287754</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.97172691858395</v>
+      </c>
+      <c r="P16">
+        <v>10.93613562639079</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.99383489931271</v>
+        <v>23.90182818929848</v>
       </c>
       <c r="C17">
-        <v>23.72056649047135</v>
+        <v>18.02933937716888</v>
       </c>
       <c r="D17">
-        <v>4.158546008979759</v>
+        <v>4.018851620771739</v>
       </c>
       <c r="E17">
-        <v>11.06779308807041</v>
+        <v>10.07471687556538</v>
       </c>
       <c r="F17">
-        <v>46.59233175283384</v>
+        <v>23.17376647410365</v>
       </c>
       <c r="G17">
-        <v>1.997640926167396</v>
+        <v>31.7041693841336</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.105632318518729</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.460737206365158</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.32893259053068</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.86479201168197</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.40995451761309</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.63101185878853</v>
+      </c>
+      <c r="P17">
+        <v>10.94370139623497</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.5402946887875</v>
+        <v>23.67274596723464</v>
       </c>
       <c r="C18">
-        <v>23.38401005110606</v>
+        <v>18.02703786530223</v>
       </c>
       <c r="D18">
-        <v>4.158379527894121</v>
+        <v>3.860698554117671</v>
       </c>
       <c r="E18">
-        <v>10.90282233055861</v>
+        <v>10.32109118948442</v>
       </c>
       <c r="F18">
-        <v>46.00681823306082</v>
+        <v>23.85379310652813</v>
       </c>
       <c r="G18">
-        <v>2.001214821862813</v>
+        <v>32.9631620397783</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.002370306907776</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.761399612059298</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.86779510828993</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.51438003407836</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.44658219792133</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.18478517494672</v>
+      </c>
+      <c r="P18">
+        <v>10.8943537085471</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.38601845351027</v>
+        <v>23.66065035170381</v>
       </c>
       <c r="C19">
-        <v>23.26954911747046</v>
+        <v>18.23746970995554</v>
       </c>
       <c r="D19">
-        <v>4.158465033506832</v>
+        <v>3.688107263349993</v>
       </c>
       <c r="E19">
-        <v>10.84677599483438</v>
+        <v>12.11845011725898</v>
       </c>
       <c r="F19">
-        <v>45.80844792642614</v>
+        <v>24.93961969657212</v>
       </c>
       <c r="G19">
-        <v>2.002424064000943</v>
+        <v>34.91202089988747</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.895927435360046</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.18480569031655</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.58300234893296</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.39521715597793</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.45914514287325</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.32456678948133</v>
+      </c>
+      <c r="P19">
+        <v>10.82306759546867</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.0774396601774</v>
+        <v>24.25560524465312</v>
       </c>
       <c r="C20">
-        <v>23.78261750486479</v>
+        <v>19.02217207133373</v>
       </c>
       <c r="D20">
-        <v>4.158645688356509</v>
+        <v>3.481807174322128</v>
       </c>
       <c r="E20">
-        <v>11.09823731154688</v>
+        <v>16.76351583866046</v>
       </c>
       <c r="F20">
-        <v>46.70064206621434</v>
+        <v>27.06887105007041</v>
       </c>
       <c r="G20">
-        <v>1.996979022801273</v>
+        <v>38.61126062522063</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.406892362782572</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.92847474085725</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.75791987798072</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.92940244633927</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.40325375457832</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.90847750408791</v>
+      </c>
+      <c r="P20">
+        <v>10.67784004199397</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.35358126177501</v>
+        <v>25.74859154329452</v>
       </c>
       <c r="C21">
-        <v>25.47336997481514</v>
+        <v>20.20996729585774</v>
       </c>
       <c r="D21">
-        <v>4.170059655208066</v>
+        <v>3.511423630319242</v>
       </c>
       <c r="E21">
-        <v>11.93124833753995</v>
+        <v>17.99648860631608</v>
       </c>
       <c r="F21">
-        <v>49.80863445214748</v>
+        <v>28.62603038367048</v>
       </c>
       <c r="G21">
-        <v>1.978584596064651</v>
+        <v>41.07501934970458</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.747775120871351</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.32452660287357</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.20413236383314</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.69045757463038</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.22767523144322</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.34367571217036</v>
+      </c>
+      <c r="P21">
+        <v>10.42779528114737</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.80986046988097</v>
+        <v>26.67853159502782</v>
       </c>
       <c r="C22">
-        <v>26.55670931211217</v>
+        <v>20.9361964507842</v>
       </c>
       <c r="D22">
-        <v>4.186780909783435</v>
+        <v>3.539667959376386</v>
       </c>
       <c r="E22">
-        <v>12.46860137230968</v>
+        <v>18.54677506773399</v>
       </c>
       <c r="F22">
-        <v>51.88944056871247</v>
+        <v>29.55000086181127</v>
       </c>
       <c r="G22">
-        <v>1.966432156072572</v>
+        <v>42.51575081753757</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.953110370908371</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.55617906533762</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.45588689174506</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.81938656001494</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.12332769958444</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.09953867474123</v>
+      </c>
+      <c r="P22">
+        <v>10.26701223769277</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.03522463259874</v>
+        <v>26.18573854318919</v>
       </c>
       <c r="C23">
-        <v>25.9802833613099</v>
+        <v>20.5512542967768</v>
       </c>
       <c r="D23">
-        <v>4.176925416131192</v>
+        <v>3.524686390731075</v>
       </c>
       <c r="E23">
-        <v>12.18232796392723</v>
+        <v>18.25464474627874</v>
       </c>
       <c r="F23">
-        <v>50.77958162325172</v>
+        <v>29.05807889542378</v>
       </c>
       <c r="G23">
-        <v>1.972934044745588</v>
+        <v>41.74920460778353</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.843797281565269</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.43222057656116</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.32042316020441</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.21865254006376</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.1779751911631</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.69878319016019</v>
+      </c>
+      <c r="P23">
+        <v>10.35277690825777</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.03965525979599</v>
+        <v>24.2412113936719</v>
       </c>
       <c r="C24">
-        <v>23.75457369724679</v>
+        <v>19.0344849745679</v>
       </c>
       <c r="D24">
-        <v>4.158597953833165</v>
+        <v>3.465937245400966</v>
       </c>
       <c r="E24">
-        <v>11.08447701488604</v>
+        <v>17.11358457449924</v>
       </c>
       <c r="F24">
-        <v>46.65167777103997</v>
+        <v>27.16862980056444</v>
       </c>
       <c r="G24">
-        <v>1.997278283560868</v>
+        <v>38.79349877750297</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.423428755741535</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.96987029840337</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.83120955169321</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.90020172814961</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.40628009100347</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.12238261866215</v>
+      </c>
+      <c r="P24">
+        <v>10.67886360248004</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.65156346124502</v>
+        <v>21.97359275888845</v>
       </c>
       <c r="C25">
-        <v>21.24245469841614</v>
+        <v>17.27015270128807</v>
       </c>
       <c r="D25">
-        <v>4.171175961225265</v>
+        <v>3.398489601363355</v>
       </c>
       <c r="E25">
-        <v>9.957515838922173</v>
+        <v>15.80767097072693</v>
       </c>
       <c r="F25">
-        <v>42.36369727069182</v>
+        <v>25.0780135156132</v>
       </c>
       <c r="G25">
-        <v>2.023319342978422</v>
+        <v>35.49610751552301</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.954891060071277</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.48693344875509</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.35260184985541</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.28574470952029</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.68934942730034</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>19.2965160760448</v>
+      </c>
+      <c r="P25">
+        <v>11.03454765701862</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.15441547918077</v>
+        <v>19.53666281723099</v>
       </c>
       <c r="C2">
-        <v>15.85836761323856</v>
+        <v>16.45905964579222</v>
       </c>
       <c r="D2">
-        <v>3.345532259453642</v>
+        <v>3.520871808184773</v>
       </c>
       <c r="E2">
-        <v>14.7809362354001</v>
+        <v>14.62234706403696</v>
       </c>
       <c r="F2">
-        <v>23.49940105459005</v>
+        <v>22.59690696800026</v>
       </c>
       <c r="G2">
-        <v>32.98058936836406</v>
+        <v>30.84400653774084</v>
       </c>
       <c r="H2">
-        <v>2.595458111676534</v>
+        <v>2.517670629459012</v>
       </c>
       <c r="J2">
-        <v>10.14559100579245</v>
+        <v>10.48093316822001</v>
       </c>
       <c r="K2">
-        <v>14.04029198394442</v>
+        <v>13.37379880325665</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.44564087089551</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.711786960433065</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.84450800727977</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.30102950102702</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.77198511971693</v>
+      </c>
+      <c r="R2">
+        <v>11.38023841933141</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82681849451981</v>
+        <v>18.30116142486205</v>
       </c>
       <c r="C3">
-        <v>14.83029022135655</v>
+        <v>15.34188348162179</v>
       </c>
       <c r="D3">
-        <v>3.3076975853952</v>
+        <v>3.448574781062258</v>
       </c>
       <c r="E3">
-        <v>14.04455411327344</v>
+        <v>13.91759927201697</v>
       </c>
       <c r="F3">
-        <v>22.40956888174088</v>
+        <v>21.63861359658881</v>
       </c>
       <c r="G3">
-        <v>31.22677336794655</v>
+        <v>29.28438185907666</v>
       </c>
       <c r="H3">
-        <v>2.342181909555467</v>
+        <v>2.28126254920082</v>
       </c>
       <c r="J3">
-        <v>9.923545853010424</v>
+        <v>10.28331083575532</v>
       </c>
       <c r="K3">
-        <v>13.85240442350809</v>
+        <v>13.2793359211151</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.53630548538158</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.37724814263887</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.79407277800423</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.48503986157338</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.73530824819303</v>
+      </c>
+      <c r="R3">
+        <v>11.53516239506364</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.96452865765011</v>
+        <v>17.49811629959612</v>
       </c>
       <c r="C4">
-        <v>14.16363284844916</v>
+        <v>14.61661822252424</v>
       </c>
       <c r="D4">
-        <v>3.283546419528116</v>
+        <v>3.402870028174032</v>
       </c>
       <c r="E4">
-        <v>13.57259456662642</v>
+        <v>13.46603588103168</v>
       </c>
       <c r="F4">
-        <v>21.73255469824457</v>
+        <v>21.04279161285589</v>
       </c>
       <c r="G4">
-        <v>30.12848797973449</v>
+        <v>28.31005353961609</v>
       </c>
       <c r="H4">
-        <v>2.181686074668484</v>
+        <v>2.131293165543892</v>
       </c>
       <c r="J4">
-        <v>9.791926957363117</v>
+        <v>10.16292242602738</v>
       </c>
       <c r="K4">
-        <v>13.74829152876388</v>
+        <v>13.2297458910708</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.59337918224061</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.200536101520037</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.11683488197995</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.59987381766195</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.06658105282154</v>
+      </c>
+      <c r="R4">
+        <v>11.63248143030934</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.60123217386744</v>
+        <v>17.15966480427685</v>
       </c>
       <c r="C5">
-        <v>13.88303487401648</v>
+        <v>14.31115030502406</v>
       </c>
       <c r="D5">
-        <v>3.273479249547557</v>
+        <v>3.383929374028336</v>
       </c>
       <c r="E5">
-        <v>13.37533114530248</v>
+        <v>13.27734938379054</v>
       </c>
       <c r="F5">
-        <v>21.45505050588441</v>
+        <v>20.79840627752491</v>
       </c>
       <c r="G5">
-        <v>29.67605580006191</v>
+        <v>27.90923020801092</v>
       </c>
       <c r="H5">
-        <v>2.115001093280731</v>
+        <v>2.068945310995242</v>
       </c>
       <c r="J5">
-        <v>9.739497805901873</v>
+        <v>10.11412692294243</v>
       </c>
       <c r="K5">
-        <v>13.70861708791332</v>
+        <v>13.21156216633599</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.61698443292756</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.136233774328502</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.83284703125712</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11.64715803174785</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.78608326847018</v>
+      </c>
+      <c r="R5">
+        <v>11.67270330900957</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.54018656262807</v>
+        <v>17.10278782270897</v>
       </c>
       <c r="C6">
-        <v>13.83590195449156</v>
+        <v>14.25982795688646</v>
       </c>
       <c r="D6">
-        <v>3.271794173279244</v>
+        <v>3.380765682202163</v>
       </c>
       <c r="E6">
-        <v>13.34227930934205</v>
+        <v>13.24573838041314</v>
       </c>
       <c r="F6">
-        <v>21.40888505616044</v>
+        <v>20.75773965940398</v>
       </c>
       <c r="G6">
-        <v>29.60065258506828</v>
+        <v>27.84245957990436</v>
       </c>
       <c r="H6">
-        <v>2.103849884577195</v>
+        <v>2.05851728639876</v>
       </c>
       <c r="J6">
-        <v>9.730865405023231</v>
+        <v>10.10604110870008</v>
       </c>
       <c r="K6">
-        <v>13.70219302779003</v>
+        <v>13.20866237371231</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.62092487455747</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.126034847077143</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.78521114878956</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11.65503969319617</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.73902839787155</v>
+      </c>
+      <c r="R6">
+        <v>11.67941649696738</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.95967738718437</v>
+        <v>17.48538960019112</v>
       </c>
       <c r="C7">
-        <v>14.15988478699738</v>
+        <v>14.59737291938282</v>
       </c>
       <c r="D7">
-        <v>3.283411554505097</v>
+        <v>3.405230574146325</v>
       </c>
       <c r="E7">
-        <v>13.5699541137282</v>
+        <v>13.46590885578023</v>
       </c>
       <c r="F7">
-        <v>21.72881820882553</v>
+        <v>21.01470712835914</v>
       </c>
       <c r="G7">
-        <v>30.12240529107408</v>
+        <v>28.39616499467614</v>
       </c>
       <c r="H7">
-        <v>2.1807919638368</v>
+        <v>2.129881954779931</v>
       </c>
       <c r="J7">
-        <v>9.791214968932398</v>
+        <v>10.10314219256916</v>
       </c>
       <c r="K7">
-        <v>13.74774542778981</v>
+        <v>13.21789792720883</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.58465630114646</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.19062296931998</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.11303718256288</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>11.60050950173162</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.05816215354698</v>
+      </c>
+      <c r="R7">
+        <v>11.63323726577035</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.70640987004592</v>
+        <v>19.09466838355328</v>
       </c>
       <c r="C8">
-        <v>15.5112185374837</v>
+        <v>16.0354827063189</v>
       </c>
       <c r="D8">
-        <v>3.332681525125086</v>
+        <v>3.505017590537858</v>
       </c>
       <c r="E8">
-        <v>14.53116781578455</v>
+        <v>14.39099977391364</v>
       </c>
       <c r="F8">
-        <v>23.12545654177046</v>
+        <v>22.19010279161282</v>
       </c>
       <c r="G8">
-        <v>32.38060325437732</v>
+        <v>30.59524551927647</v>
       </c>
       <c r="H8">
-        <v>2.509145129803611</v>
+        <v>2.435343324044672</v>
       </c>
       <c r="J8">
-        <v>10.0680634695216</v>
+        <v>10.22142571321302</v>
       </c>
       <c r="K8">
-        <v>13.97312937902527</v>
+        <v>13.30153420948056</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.44867527190681</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.559432848010039</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.48906847158655</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.36410636905753</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.40683411208377</v>
+      </c>
+      <c r="R8">
+        <v>11.43443629560452</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.760468722883</v>
+        <v>21.92962298670449</v>
       </c>
       <c r="C9">
-        <v>17.88183189939395</v>
+        <v>18.60110230387748</v>
       </c>
       <c r="D9">
-        <v>3.421735833686167</v>
+        <v>3.679986518015987</v>
       </c>
       <c r="E9">
-        <v>16.25768118944696</v>
+        <v>16.04452090084941</v>
       </c>
       <c r="F9">
-        <v>25.78883223140121</v>
+        <v>24.51744531461009</v>
       </c>
       <c r="G9">
-        <v>36.6210187696449</v>
+        <v>34.42059903387867</v>
       </c>
       <c r="H9">
-        <v>3.114870054326125</v>
+        <v>2.999360158545026</v>
       </c>
       <c r="J9">
-        <v>10.64744986136914</v>
+        <v>10.67612439722531</v>
       </c>
       <c r="K9">
-        <v>14.50744371524022</v>
+        <v>13.57879319170878</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.226464840094</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.52109381078083</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.9283327544415</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>10.91409789786107</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.80979993906109</v>
+      </c>
+      <c r="R9">
+        <v>11.06076709830891</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.7688728763745</v>
+        <v>23.75912853164944</v>
       </c>
       <c r="C10">
-        <v>19.41602140039799</v>
+        <v>20.18467066744795</v>
       </c>
       <c r="D10">
-        <v>3.501703071299046</v>
+        <v>3.836594503540435</v>
       </c>
       <c r="E10">
-        <v>16.96853047221262</v>
+        <v>16.70909178350032</v>
       </c>
       <c r="F10">
-        <v>27.52962488206164</v>
+        <v>25.91458780845287</v>
       </c>
       <c r="G10">
-        <v>39.32734067990437</v>
+        <v>37.28985547920253</v>
       </c>
       <c r="H10">
-        <v>3.512081995032371</v>
+        <v>3.364561178848094</v>
       </c>
       <c r="J10">
-        <v>11.03424605437435</v>
+        <v>10.65266822809106</v>
       </c>
       <c r="K10">
-        <v>14.85912547587112</v>
+        <v>13.68326535089713</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.97363795266423</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.193319065825447</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.26444841289977</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>10.59436200010958</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.09950800817036</v>
+      </c>
+      <c r="R10">
+        <v>10.81013134290481</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.5233364577932</v>
+        <v>24.43696856246794</v>
       </c>
       <c r="C11">
-        <v>19.7388169579865</v>
+        <v>20.34328393746829</v>
       </c>
       <c r="D11">
-        <v>3.719803312259168</v>
+        <v>4.120971440082657</v>
       </c>
       <c r="E11">
-        <v>13.68736935575901</v>
+        <v>13.3330886512831</v>
       </c>
       <c r="F11">
-        <v>26.96553680887693</v>
+        <v>25.12021072165041</v>
       </c>
       <c r="G11">
-        <v>38.15601054766969</v>
+        <v>37.10913374598707</v>
       </c>
       <c r="H11">
-        <v>4.023068996584327</v>
+        <v>3.887053772174726</v>
       </c>
       <c r="J11">
-        <v>10.6946196275123</v>
+        <v>9.693323161416595</v>
       </c>
       <c r="K11">
-        <v>14.15669092603519</v>
+        <v>12.90372034361106</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.32603553995281</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.786765409450464</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.30984108761167</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>10.51705897644418</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.10422349425589</v>
+      </c>
+      <c r="R11">
+        <v>10.82670600062593</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.7535307221794</v>
+        <v>24.6610449319931</v>
       </c>
       <c r="C12">
-        <v>19.70054568221348</v>
+        <v>20.19689072432218</v>
       </c>
       <c r="D12">
-        <v>3.904243988109318</v>
+        <v>4.333467590398528</v>
       </c>
       <c r="E12">
-        <v>11.51500755016254</v>
+        <v>11.04842914582034</v>
       </c>
       <c r="F12">
-        <v>26.10873652673434</v>
+        <v>24.21239628834542</v>
       </c>
       <c r="G12">
-        <v>36.58018009586203</v>
+        <v>36.08671230849488</v>
       </c>
       <c r="H12">
-        <v>4.960419563279053</v>
+        <v>4.852067770402204</v>
       </c>
       <c r="J12">
-        <v>10.31538935410544</v>
+        <v>9.084443503672407</v>
       </c>
       <c r="K12">
-        <v>13.47175030235769</v>
+        <v>12.25133218010522</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.8664844554629</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.317412519469784</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.36535035754141</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>10.55586287899804</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.14851193854931</v>
+      </c>
+      <c r="R12">
+        <v>10.92607806359515</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.60230246967159</v>
+        <v>24.57345923949891</v>
       </c>
       <c r="C13">
-        <v>19.38140370558732</v>
+        <v>19.83160687599253</v>
       </c>
       <c r="D13">
-        <v>4.071182872391233</v>
+        <v>4.490038906425088</v>
       </c>
       <c r="E13">
-        <v>10.45571435276505</v>
+        <v>9.90431732602074</v>
       </c>
       <c r="F13">
-        <v>24.94341296693101</v>
+        <v>23.18338919542349</v>
       </c>
       <c r="G13">
-        <v>34.53704908159602</v>
+        <v>34.12409850546963</v>
       </c>
       <c r="H13">
-        <v>6.070837388267698</v>
+        <v>5.988788093629621</v>
       </c>
       <c r="J13">
-        <v>9.874705859923029</v>
+        <v>8.808617712632868</v>
       </c>
       <c r="K13">
-        <v>12.74822502795117</v>
+        <v>11.67520840252775</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.52573175448186</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.782023853807566</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.25496542106482</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>10.67822418091914</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.05704693738297</v>
+      </c>
+      <c r="R13">
+        <v>11.07377547957052</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.3226031135587</v>
+        <v>24.36996333173892</v>
       </c>
       <c r="C14">
-        <v>19.02741277436424</v>
+        <v>19.4713287227635</v>
       </c>
       <c r="D14">
-        <v>4.180956096505625</v>
+        <v>4.574114471901435</v>
       </c>
       <c r="E14">
-        <v>10.56746544493214</v>
+        <v>10.0157401390139</v>
       </c>
       <c r="F14">
-        <v>23.97266943759978</v>
+        <v>22.39261839289139</v>
       </c>
       <c r="G14">
-        <v>32.86541178741395</v>
+        <v>32.30207755893817</v>
       </c>
       <c r="H14">
-        <v>6.913922485082394</v>
+        <v>6.847410288253537</v>
       </c>
       <c r="J14">
-        <v>9.535824959193976</v>
+        <v>8.750326246033623</v>
       </c>
       <c r="K14">
-        <v>12.22328100943424</v>
+        <v>11.30358711421163</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.33531813039745</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.372711676951072</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.67727857287795</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>10.8018186799961</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.50567949605733</v>
+      </c>
+      <c r="R14">
+        <v>11.19552089236151</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.1715037450166</v>
+        <v>24.25152807304532</v>
       </c>
       <c r="C15">
-        <v>18.87927707501782</v>
+        <v>19.33263419002207</v>
       </c>
       <c r="D15">
-        <v>4.201788115045868</v>
+        <v>4.581120391042633</v>
       </c>
       <c r="E15">
-        <v>10.69292144215217</v>
+        <v>10.15564829701278</v>
       </c>
       <c r="F15">
-        <v>23.66866476413477</v>
+        <v>22.16920824569512</v>
       </c>
       <c r="G15">
-        <v>32.35336264251045</v>
+        <v>31.66453692311014</v>
       </c>
       <c r="H15">
-        <v>7.106465447338412</v>
+        <v>7.04404043405161</v>
       </c>
       <c r="J15">
-        <v>9.441257979558273</v>
+        <v>8.793867538171417</v>
       </c>
       <c r="K15">
-        <v>12.08974671131419</v>
+        <v>11.22813864890341</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.30978404738722</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.258664436929463</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.25379751036314</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>10.84371219199708</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.09418880011737</v>
+      </c>
+      <c r="R15">
+        <v>11.22925214271394</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.37251020508763</v>
+        <v>23.574896433576</v>
       </c>
       <c r="C16">
-        <v>18.29189255667007</v>
+        <v>18.83312707834044</v>
       </c>
       <c r="D16">
-        <v>4.132394392492686</v>
+        <v>4.449374203774568</v>
       </c>
       <c r="E16">
-        <v>10.4655869138817</v>
+        <v>9.990868712323213</v>
       </c>
       <c r="F16">
-        <v>23.08299388531388</v>
+        <v>21.89359316973067</v>
       </c>
       <c r="G16">
-        <v>31.45688422869081</v>
+        <v>30.03700464074156</v>
       </c>
       <c r="H16">
-        <v>6.822935034925634</v>
+        <v>6.768077391941943</v>
       </c>
       <c r="J16">
-        <v>9.347033554353704</v>
+        <v>9.28505858401282</v>
       </c>
       <c r="K16">
-        <v>12.06359627901709</v>
+        <v>11.37452847727955</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.50973286830901</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.134452134828671</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.97172691858395</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>10.93613562639079</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.85893320794811</v>
+      </c>
+      <c r="R16">
+        <v>11.26006818520749</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.90182818929848</v>
+        <v>23.14713216156421</v>
       </c>
       <c r="C17">
-        <v>18.02933937716888</v>
+        <v>18.62475811650861</v>
       </c>
       <c r="D17">
-        <v>4.018851620771739</v>
+        <v>4.308834900272015</v>
       </c>
       <c r="E17">
-        <v>10.07471687556538</v>
+        <v>9.625870177083954</v>
       </c>
       <c r="F17">
-        <v>23.17376647410365</v>
+        <v>22.09224963676696</v>
       </c>
       <c r="G17">
-        <v>31.7041693841336</v>
+        <v>29.91450626433571</v>
       </c>
       <c r="H17">
-        <v>6.105632318518729</v>
+        <v>6.049428945365159</v>
       </c>
       <c r="J17">
-        <v>9.460737206365158</v>
+        <v>9.630333922125638</v>
       </c>
       <c r="K17">
-        <v>12.32893259053068</v>
+        <v>11.67463352480384</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.76504843555152</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.251999260079193</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.63101185878853</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>10.94370139623497</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.53514708531259</v>
+      </c>
+      <c r="R17">
+        <v>11.22941868868704</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.67274596723464</v>
+        <v>22.90964736044484</v>
       </c>
       <c r="C18">
-        <v>18.02703786530223</v>
+        <v>18.67847385672147</v>
       </c>
       <c r="D18">
-        <v>3.860698554117671</v>
+        <v>4.142039237539373</v>
       </c>
       <c r="E18">
-        <v>10.32109118948442</v>
+        <v>9.907190568192775</v>
       </c>
       <c r="F18">
-        <v>23.85379310652813</v>
+        <v>22.76158885630094</v>
       </c>
       <c r="G18">
-        <v>32.9631620397783</v>
+        <v>30.92132421586081</v>
       </c>
       <c r="H18">
-        <v>5.002370306907776</v>
+        <v>4.93444638145364</v>
       </c>
       <c r="J18">
-        <v>9.761399612059298</v>
+        <v>9.992713146084768</v>
       </c>
       <c r="K18">
-        <v>12.86779510828993</v>
+        <v>12.16046042670211</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.1157619199259</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.600162805208829</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.18478517494672</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>10.8943537085471</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.08978967165545</v>
+      </c>
+      <c r="R18">
+        <v>11.14940564613834</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.66065035170381</v>
+        <v>22.85410291866969</v>
       </c>
       <c r="C19">
-        <v>18.23746970995554</v>
+        <v>18.95217357406542</v>
       </c>
       <c r="D19">
-        <v>3.688107263349993</v>
+        <v>3.970341757146056</v>
       </c>
       <c r="E19">
-        <v>12.11845011725898</v>
+        <v>11.77539058677818</v>
       </c>
       <c r="F19">
-        <v>24.93961969657212</v>
+        <v>23.76225990235113</v>
       </c>
       <c r="G19">
-        <v>34.91202089988747</v>
+        <v>32.66658850019452</v>
       </c>
       <c r="H19">
-        <v>3.895927435360046</v>
+        <v>3.802586496142684</v>
       </c>
       <c r="J19">
-        <v>10.18480569031655</v>
+        <v>10.38415617558927</v>
       </c>
       <c r="K19">
-        <v>13.58300234893296</v>
+        <v>12.76764917019251</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.52579010484</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.107735685995634</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.32456678948133</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>10.82306759546867</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.22061988286072</v>
+      </c>
+      <c r="R19">
+        <v>11.0488803651053</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.25560524465312</v>
+        <v>23.31502076929167</v>
       </c>
       <c r="C20">
-        <v>19.02217207133373</v>
+        <v>19.81992544577226</v>
       </c>
       <c r="D20">
-        <v>3.481807174322128</v>
+        <v>3.78710877416845</v>
       </c>
       <c r="E20">
-        <v>16.76351583866046</v>
+        <v>16.50856346639132</v>
       </c>
       <c r="F20">
-        <v>27.06887105007041</v>
+        <v>25.61691759274562</v>
       </c>
       <c r="G20">
-        <v>38.61126062522063</v>
+        <v>36.2721777615146</v>
       </c>
       <c r="H20">
-        <v>3.406892362782572</v>
+        <v>3.269455866958711</v>
       </c>
       <c r="J20">
-        <v>10.92847474085725</v>
+        <v>10.84722327445624</v>
       </c>
       <c r="K20">
-        <v>14.75791987798072</v>
+        <v>13.68739692608208</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.06199688074963</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.042140097815949</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.90847750408791</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>10.67784004199397</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.76891178334183</v>
+      </c>
+      <c r="R20">
+        <v>10.87249492263533</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.74859154329452</v>
+        <v>24.54762874946238</v>
       </c>
       <c r="C21">
-        <v>20.20996729585774</v>
+        <v>20.84248368031808</v>
       </c>
       <c r="D21">
-        <v>3.511423630319242</v>
+        <v>3.925040442087319</v>
       </c>
       <c r="E21">
-        <v>17.99648860631608</v>
+        <v>17.75808601344324</v>
       </c>
       <c r="F21">
-        <v>28.62603038367048</v>
+        <v>26.51712661099832</v>
       </c>
       <c r="G21">
-        <v>41.07501934970458</v>
+        <v>40.15275519150818</v>
       </c>
       <c r="H21">
-        <v>3.747775120871351</v>
+        <v>3.575759208860437</v>
       </c>
       <c r="J21">
-        <v>11.32452660287357</v>
+        <v>9.927530354700302</v>
       </c>
       <c r="K21">
-        <v>15.20413236383314</v>
+        <v>13.71049167312355</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.82569305666646</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.517148974943758</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.34367571217036</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>10.42779528114737</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.09838948475704</v>
+      </c>
+      <c r="R21">
+        <v>10.68433423574349</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.67853159502782</v>
+        <v>25.30940909630129</v>
       </c>
       <c r="C22">
-        <v>20.9361964507842</v>
+        <v>21.44704008992165</v>
       </c>
       <c r="D22">
-        <v>3.539667959376386</v>
+        <v>4.028921952803258</v>
       </c>
       <c r="E22">
-        <v>18.54677506773399</v>
+        <v>18.31918790247912</v>
       </c>
       <c r="F22">
-        <v>29.55000086181127</v>
+        <v>27.00499945088083</v>
       </c>
       <c r="G22">
-        <v>42.51575081753757</v>
+        <v>42.58054485367608</v>
       </c>
       <c r="H22">
-        <v>3.953110370908371</v>
+        <v>3.758963855499586</v>
       </c>
       <c r="J22">
-        <v>11.55617906533762</v>
+        <v>9.25806786374584</v>
       </c>
       <c r="K22">
-        <v>15.45588689174506</v>
+        <v>13.67726936066291</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.63826484785273</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.788882788369225</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.09953867474123</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>10.26701223769277</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.78330983267821</v>
+      </c>
+      <c r="R22">
+        <v>10.5721417453494</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.18573854318919</v>
+        <v>24.9216442428137</v>
       </c>
       <c r="C23">
-        <v>20.5512542967768</v>
+        <v>21.1556253431279</v>
       </c>
       <c r="D23">
-        <v>3.524686390731075</v>
+        <v>3.966223834198737</v>
       </c>
       <c r="E23">
-        <v>18.25464474627874</v>
+        <v>18.01543622297286</v>
       </c>
       <c r="F23">
-        <v>29.05807889542378</v>
+        <v>26.79665049896867</v>
       </c>
       <c r="G23">
-        <v>41.74920460778353</v>
+        <v>41.10755077921977</v>
       </c>
       <c r="H23">
-        <v>3.843797281565269</v>
+        <v>3.662505876979442</v>
       </c>
       <c r="J23">
-        <v>11.43222057656116</v>
+        <v>9.745569773159135</v>
       </c>
       <c r="K23">
-        <v>15.32042316020441</v>
+        <v>13.72269735641322</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.75607133284338</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.667214083463048</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.69878319016019</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>10.35277690825777</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.42955830567008</v>
+      </c>
+      <c r="R23">
+        <v>10.62915762215623</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.2412113936719</v>
+        <v>23.29780258675713</v>
       </c>
       <c r="C24">
-        <v>19.0344849745679</v>
+        <v>19.83961475193686</v>
       </c>
       <c r="D24">
-        <v>3.465937245400966</v>
+        <v>3.769612771072219</v>
       </c>
       <c r="E24">
-        <v>17.11358457449924</v>
+        <v>16.86453000254066</v>
       </c>
       <c r="F24">
-        <v>27.16862980056444</v>
+        <v>25.7122834807338</v>
       </c>
       <c r="G24">
-        <v>38.79349877750297</v>
+        <v>36.42472298871219</v>
       </c>
       <c r="H24">
-        <v>3.423428755741535</v>
+        <v>3.285681855670244</v>
       </c>
       <c r="J24">
-        <v>10.96987029840337</v>
+        <v>10.89387142282011</v>
       </c>
       <c r="K24">
-        <v>14.83120955169321</v>
+        <v>13.7524877757614</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.10932562369356</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.090990702909755</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.12238261866215</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>10.67886360248004</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.98249690292272</v>
+      </c>
+      <c r="R24">
+        <v>10.86845348795264</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.97359275888845</v>
+        <v>21.20981870221928</v>
       </c>
       <c r="C25">
-        <v>17.27015270128807</v>
+        <v>17.95806037291265</v>
       </c>
       <c r="D25">
-        <v>3.398489601363355</v>
+        <v>3.630137221709146</v>
       </c>
       <c r="E25">
-        <v>15.80767097072693</v>
+        <v>15.6105257465395</v>
       </c>
       <c r="F25">
-        <v>25.0780135156132</v>
+        <v>23.92769348163019</v>
       </c>
       <c r="G25">
-        <v>35.49610751552301</v>
+        <v>33.29114976329192</v>
       </c>
       <c r="H25">
-        <v>2.954891060071277</v>
+        <v>2.851303717154001</v>
       </c>
       <c r="J25">
-        <v>10.48693344875509</v>
+        <v>10.63154775487531</v>
       </c>
       <c r="K25">
-        <v>14.35260184985541</v>
+        <v>13.51153017307432</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.29633767386326</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.255970210191446</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.2965160760448</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.03454765701862</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.19350625886242</v>
+      </c>
+      <c r="R25">
+        <v>11.1593364981883</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
